--- a/medicine/Pharmacie/Psychoanaleptique/Psychoanaleptique.xlsx
+++ b/medicine/Pharmacie/Psychoanaleptique/Psychoanaleptique.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t>Les psychoanaleptiques ou psychostimulants sont des substances psychotropes considérées comme des excitants psychiques, qui accélèrent l'activité du système nerveux et stimulent l'humeur.
 Le terme est issu de la classification des psychotropes selon Delay et Deniker, ils comprennent :
